--- a/Tata Steel Vs JSW Steel 1.xlsx
+++ b/Tata Steel Vs JSW Steel 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kpmgindia365-my.sharepoint.com/personal/shubhangia3_kpmg_com/Documents/Documents/Workfiles/External/Tata Steel/Competitor Analysis Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kpmgindia365-my.sharepoint.com/personal/indreshb_kpmg_com/Documents/Desktop/WorkSpace/docGPT_API/documentGPT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{308EECE7-7F42-4B7A-9089-81CDABADE86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EB7955F-BC31-4E51-8151-6731CDD46241}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C69567B9-8407-4015-B060-FF5451D10455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3EC231C4-81B1-4EE2-81C8-5780CF364873}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3EC231C4-81B1-4EE2-81C8-5780CF364873}"/>
   </bookViews>
   <sheets>
     <sheet name="Level 1 Analysis as it is" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
   <si>
     <t>KPI</t>
   </si>
@@ -166,17 +166,6 @@
     <t>Sales Growth</t>
   </si>
   <si>
-    <t xml:space="preserve">During FY2022-23, Tata Steel reported sales of 18.22 million tonnes, which is a 3% increase compared to the previous year. The sales performance across different verticals is as follows:
-Automotive &amp; Special products: Sales of 2.38 million tonnes, a 7% YoY growth.
-Branded Products, Retail &amp; Solutions: Sales of 5.85 million tonnes, a 9% YoY growth.
-Industrial Products &amp; Projects: Sales of 6.91 million tonnes, a 14% YoY growth.
-Domestic sales: 15.14 million tonnes, a 11% YoY growth.
-Exports: 1.61 million tonnes, a 38% YoY decline.
-Total deliveries: 18.22 million tonnes, a 3% YoY growth.
-FY2022-23 was the year of best-ever sales performance for Tata Steel, driven by strong domestic sales performance across all three sales verticals. Automotive sales witnessed robust demand in the passenger vehicle and commercial vehicle segments. Tata Steel also achieved growth in the branded products, retail, and solutions segment. The company's consolidated financial performance showed an increase in revenue and a decline in operating EBITDA and profit after tax compared to the previous year.
-</t>
-  </si>
-  <si>
     <t>The sales growth of JSW Steel in FY 2021-22 was significant. The company achieved the highest-ever annual consolidated crude steel production of 19.51 million tonnes, with a growth of 29% year-on-year. The sales volume also improved, reaching 18.18 million tonnes, a growth of 21% year-on-year. The company's consolidated revenue from operations increased by 83% to ₹146,371 crore. The sales mix showed an increase in the share of value-added and special products (VASP), accounting for 60% of total sales volumes. Exports accounted for 28% of total sales. The company also completed capacity expansion projects and improved its financial profile, including a reduction in net gearing and improved credit ratings. In Q2 FY 2022-23, the company reported a net loss after tax of ₹915 crores.</t>
   </si>
   <si>
@@ -186,32 +175,15 @@
     <t>Tata Steel reported its highest ever steel sales volume of 19.67 MnT, with a 19% YoY growth. Domestic sales increased by 38% YoY, driven by government infrastructure projects and increased demand from the auto sector. Export sales accounted for 9% of total sales, down 50% YoY. Revenue from operations grew by 11% YoY to ₹131,687 crore. Operating EBITDA declined by 52% YoY to ₹15,371 crore. Profit after tax decreased by 70% YoY to ₹4,937 crore. Tata Steel plans to focus on organic expansion in India and aims to double its production capacity by 2030. They are also diversifying their product offerings beyond steel by introducing new materials in composites, graphene, and medical materials. The company aims to consolidate its position as a global cost leader by focusing on operational and structural cost improvement initiatives. In terms of sales, Tata Steel achieved best-ever performance in automotive and special products, branded products and retail, and industrial products and projects. They also saw growth in the engineering segment and downstream business. Steel exports contributed to sales, with increased exports to countries like France, South Korea, and the UK.</t>
   </si>
   <si>
-    <t xml:space="preserve">Based on the available information, here are some insights on JSW Steel's plans and initiatives for growing their sales:
-Capacity Expansion: JSW Steel has been focusing on expanding its capacity to meet the growing demand for steel. They have doubled their crude steel capacity in Dolvi to 10 million tonnes per annum (MTPA) and have completed the capacity expansion at Vijayanagar's CRM-1 complex. These expansions will contribute to increased production and sales volume.
-Product Innovation: JSW Steel is committed to delivering high-quality and innovative products to its customers. They have enhanced their focus on research and development (R&amp;D) initiatives and have developed 58 new grades of steel. The company aims to strengthen its market share in the Value-added and Special Products (VASP) segment by continuously upgrading its product offerings.
-Diversification: JSW Steel aims to diversify its product portfolio to cater to different industry segments. They have been focusing on the sale of value-added and special products (VASP), which accounted for 60% of total sales volumes in FY 2021-22. This diversification strategy helps JSW Steel tap into new markets and increase sales.
-Strong Branding: JSW Steel has established strong product brands over the years, which enjoy considerable market share. In FY 2021-22, branded products accounted for 47% of total retail sales. By maintaining and strengthening their brand presence, JSW Steel aims to attract more customers and increase sales.
-Export Focus: JSW Steel has been actively involved in export activities, with exports accounting for 28% of total sales in FY 2021-22. They have been exporting steel to various countries and aim to expand their presence in the global market. However, it is important to note that export volumes in FY 2022-23 experienced a decline due to the imposition of export duties.
-These are some of the planned initiatives and strategies that JSW Steel is implementing to grow their sales. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Revenue </t>
   </si>
   <si>
     <t>The consolidated revenue of Tata Steel for FY 2021-22 was ₹2,43,352.69 crore and for FY 2022-23 was ₹2,43,959.17 crore.</t>
   </si>
   <si>
-    <t xml:space="preserve">The consolidated revenue of JSW Steel for FY 21-22 was ₹146,371 crore, and for FY 22-23 it was ₹1,65,960 crore.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Capital allocation </t>
   </si>
   <si>
-    <t xml:space="preserve">Tata Steel has allocated a total of approximately Rs. 14,142 crore for capital expenditure in the fiscal year 2022-23. This includes investments in the ongoing expansion of the Kalinganagar Plant and the establishment of a scrap and EAF based long products plant as part of their decarbonization strategy. In Europe, the company has allocated capital for transitioning to steel production using green hydrogen and for blast furnace relining projects.
-</t>
-  </si>
-  <si>
     <t>JSW Steel is a leading integrated steel company with a capacity of 28.5 MTPA in India and the USA. They have a strong capital allocation strategy focused on capturing value-accretive opportunities while maintaining leverage below stated levels. Their capital expansion projects include a 5mtpa brownfield expansion at Vijayanagar and a Phase-II expansion at BPSL. The company aims to reach a total production capacity of 37 MTPA in India by FY 2024-25. They have received positive ratings from credit agencies and have a conservative approach to bidding and maintaining debt levels. The company has also implemented various strategies for risk management and sustainability practices.</t>
   </si>
   <si>
@@ -225,21 +197,6 @@
   </si>
   <si>
     <t xml:space="preserve">  M&amp;A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In different years, Tata Steel engaged in various merger and acquisition activities. Some key activities include:
-Amalgamation of Bamnipal Steel Limited and Tata Steel BSL Limited into Tata Steel Limited. The scheme was approved by the shareholders in March 2021, and the merger became effective in November 2021.
-Acquisition of Neelachal Ispat Nigam Limited by Tata Steel Long Products Limited (TSLP) in January 2022. This strategic acquisition will help boost Tata Steel's long products business.
-Acquisition of a stake in Ceramat Private Limited by Tata Steel Limited through its subsidiary Tata Steel Advanced Materials Limited. This acquisition was completed in March 2022.
-Acquisition of itemized assets from Stork Ferro and Mineral Industries Private Limited in March 2022.
-Acquisition of the entire stake held by Steel Authority of India Limited in S &amp; T Mining Company Limited in April 2022. S&amp;T Mining became a wholly-owned subsidiary of Tata Steel.
-Amalgamation of Tata Steel Long Products Limited, The Tinplate Company of India Limited, Tata Metaliks Limited, and TRF Limited into Tata Steel Limited. The schemes of amalgamation were approved by the Board in September 2022 and are subject to approval from shareholders and regulatory authorities.
-</t>
-  </si>
-  <si>
-    <t>JSW Steel has engaged in various merger and acquisition activities in different years. In FY 2022-23, JSW Steel acquired Bhushan Power and Steel Limited (BPSL), which operates a 3.50 MTPA integrated steel plant in Odisha. The merger with BPSL resulted in JSW Steel holding 83.28% equity in PSL, making it a subsidiary of JSW Steel. The financial performance of BPSL in FY 2022-23 showed a decline in EBITDA and profit after tax compared to the previous year.
-In addition to the BPSL merger, JSW Steel also carried out other mergers and acquisitions. The Company merged its wholly-owned subsidiaries ACCIL and HSL with JSW Steel. The merger of VIL and JVTPL, wholly-owned subsidiaries of JSW Steel, with JSW Coated was also completed. JSW Coated issued shares to JSW Steel as part of the merger.
-JSW Steel continues to evaluate acquisition opportunities that are value accretive while maintaining financial discipline. The Company aims to increase its domestic steel capacity to 37 MTPA by FY 2024-25.</t>
   </si>
   <si>
     <t>R&amp;D</t>
@@ -308,6 +265,26 @@
     Special Bar and Wire Rod-Combi Mill: Tata Steel is setting up a Special Bar and Wire Rod-Combi Mill in Jamshedpur, which is focused on the automotive market.
     Expansion of tinplate capacity: Tata Steel is expanding its tinplate capacity by expanding the plant by 0.3 MnTPA.
 </t>
+  </si>
+  <si>
+    <t>JSW Steel has a strong focus on increasing its market share in the Value-added and Special Products (VASP) segment. In FY 2021-22, the share of VASP in the overall sales mix was 60%. This growth was driven by increased domestic sales in the automotive, solar, and appliance segments. The domestic sales to exports ratio has remained constant at 72:28 over the past two years. The company's domestic sales mix by industry includes 28% OEM/Industrial, 72% Retail, and 16% Auto. The company has a significant market share in the coated steel segment, with Galvanised and Galvalume products accounting for 12.4% of the total product mix. In the domestic market, GI &amp; GL products have a 43% market share. The company has seen growth in sales volume, with domestic sales reaching 12.97 million tonnes in FY 2021-22. The share of exports in total sales dropped to 13% in FY 2022-23, down from 28% in the previous year and with a total sales volume of 19.67 million tonnes in FY 2022-23</t>
+  </si>
+  <si>
+    <t>Tata Steel is currently working on several key capex projects. Some of the notable projects include:
+    Expansion project in Kalinganagar: Tata Steel is focused on completing the expansion project in Kalinganagar to create a state-of-the-art 8 million tonnes per annum (MnTPA) site. This expansion includes the commissioning of the Pellet Plant, which is 70% complete, and the phase-wise commissioning of the Cold Rolling Mill Complex.
+    Acquisition of Neelachal Ispat Nigam Limited (NINL): Tata Steel is in the process of acquiring NINL, which is expected to become the long products business hub in the future. The plant has been non-operational for some time, but Tata Steel plans to start operations in about six months from the transaction closure and ramp up to its rated billet making capacity of 1.1 MnTPA within 12 months.
+    Doubling of ductile iron pipes facilities in Tata Metaliks: Tata Steel is doubling its ductile iron pipes facilities in Tata Metaliks in Kharagpur.
+    Special Bar and Wire Rod-Combi Mill: Tata Steel is setting up a Special Bar and Wire Rod-Combi Mill in Jamshedpur, which is focused on the automotive market.
+    Expansion of tinplate capacity: Tata Steel is expanding its tinplate capacity by expanding the plant by 0.3 MnTPA.</t>
+  </si>
+  <si>
+    <t>JSW Steel has undertaken several capex projects. Here are some of the key projects:
+Acquisition of Vallabh Tinplate Limited (VTPL) with a crude steel capacity of 1.2 MTPA and finishing capacity of 1.3 MTPA.
+Acquisition of JSW Ohio (previously Acero Junction) with an integrated steel plant capacity of 1.5 MNTPA and finishing capacity of 3 MNTPA.
+Development and commissioning of a 13.2 MTPA greenfield steel plant in Jagatsinghpur district, Odisha, along with a 900 MW captive power plant.
+Brownfield expansions at Vijayanagar and Bhushan Power and Steel Limited (BPSL) to reach a steelmaking capacity of 37 MTPA by FY 2024-25.
+Vision to reach a total capacity of 50 MTPA in India by FY 2030-31.
+Strategic partnerships with Severfield UK PLC, Marubeni-Itochu Steel, and Structural Metal Decks Limited.</t>
   </si>
   <si>
     <t>The EBITDA of Tata Steel for different quarters and fiscal years is as follows:
@@ -348,21 +325,61 @@
 Operating EBITDA: ₹6,247 crores
 Operating EBITDA : ₹18,547 crores
 Please note that there may be missing or unavailable EBITDA information for certain quarters.
-Related Questions:
-1. What was the EBITDA margin for Q2 FY 2021-22?
-2. Can you provide the EBITDA for Q3 FY 2022-23?
-3. Is there any EBITDA information available for Q1 FY 2021-22?
-Can you provide the EBITDA of JSW Steel for FY 21-22 and FY22-23?
-Answer:
-Here are the EBITDA values of JSW Steel for FY 2021-22 and FY 2022-23:
-FY 2021-22:
-No available EBITDA information.
-FY 2022-23:
-Operating EBITDA: ₹7,939 crores
 </t>
   </si>
   <si>
-    <t>JSW Steel has a strong focus on increasing its market share in the Value-added and Special Products (VASP) segment. In FY 2021-22, the share of VASP in the overall sales mix was 60%. This growth was driven by increased domestic sales in the automotive, solar, and appliance segments. The domestic sales to exports ratio has remained constant at 72:28 over the past two years. The company's domestic sales mix by industry includes 28% OEM/Industrial, 72% Retail, and 16% Auto. The company has a significant market share in the coated steel segment, with Galvanised and Galvalume products accounting for 12.4% of the total product mix. In the domestic market, GI &amp; GL products have a 43% market share. The company has seen growth in sales volume, with domestic sales reaching 12.97 million tonnes in FY 2021-22. The share of exports in total sales dropped to 13% in FY 2022-23, down from 28% in the previous year and with a total sales volume of 19.67 million tonnes in FY 2022-23</t>
+    <t xml:space="preserve">
+Based on the information provided in the documents, JSW Steel has strategically positioned itself in key locations across India, the USA, and Italy. The majority of its production capacity is met by the company's four Integrated Steel Plants (ISPs) located in Vijayanagar, Dolvi, Salem, and Odisha. The manufacturing unit in Vijayanagar, Karnataka is the largest single-location steel-producing facility in India with a capacity of 12.0 MTPA.
+JSW Steel also has a strong export presence spanning 100 countries. In addition to its manufacturing locations, JSW Steel has one of the largest distributor and retailer networks in India, with a distinct customer base. It has exclusive and non-exclusive retail outlets, as well as a network of 370 distributors and a presence across 1,500 towns.
+The geographical proximity of JSW Steel's manufacturing locations to consumer locations is not explicitly mentioned in the provided documents. However, the strategic positioning of its manufacturing plants across different regions in India suggests that JSW Steel aims to cater to the domestic market efficiently. With a strong distribution network and export presence, JSW Steel is able to reach consumers both within India and internationally. </t>
+  </si>
+  <si>
+    <t>Tata Steel has manufacturing locations in India and outside India. In India, they have 64 plants and 139 offices, while outside India, they have 40 plants and 28 offices. The company serves markets in 28 states and 8 union territories in India, as well as 79 countries internationally. The revenue split for Tata Steel shows that they generated 7% of their total revenue from exports in FY2022-23.
+1. India : Tata steel has manufacturing plants in Jamshedpur, Gamharia, Kalinganagar and Meramandali. These plants are strategically located in different parts of India to cater to the domestic market. The proximity of these locations to consumer locations within India can vary based on factors such as the location of Infrastructre projects, industries, and population centres
+2. UK and Europe :  Tata Steel operates manufacturing facilities in Port Talbot, Wales and IJmuiden, Netherlands. These plants primarily serve the UK and European markets. The proximity of these locations to consumer locations in the UK and Europe allows for efficient distribution within the region.
+3. Thailand : Tata Steel has manufacturing plants in Chonburi Province, Saraburi Province and Rayong Province in Thailand. These facilities cater to local Thai market and other countries in Southeast Asia. The proximity of these locations to consumer locations in the region contributes to efficient logistics and distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">During FY2022-23, Tata Steel reported sales of 18.22 million tonnes, which is a 3% increase compared to the previous year. The sales performance across different verticals is as follows:
+Automotive &amp; Special products: Sales of 2.38 million tonnes, a 7% YoY growth.
+Branded Products, Retail &amp; Solutions: Sales of 5.85 million tonnes, a 9% YoY growth.
+Industrial Products &amp; Projects: Sales of 6.91 million tonnes, a 14% YoY growth.
+Domestic sales: 15.14 million tonnes, a 11% YoY growth.
+Exports: 1.61 million tonnes, a 38% YoY decline.
+Total deliveries: 18.22 million tonnes, a 3% YoY growth.
+FY2022-23 was the year of best-ever sales performance for Tata Steel, driven by strong domestic sales performance across all three sales verticals. Automotive sales witnessed robust demand in the passenger vehicle and commercial vehicle segments. Tata Steel also achieved growth in the branded products, retail, and solutions segment. The company's consolidated financial performance showed an increase in revenue and a decline in operating EBITDA and profit after tax compared to the previous year.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on the available information, here are some insights on JSW Steel's plans and initiatives for growing their sales:
+Capacity Expansion: JSW Steel has been focusing on expanding its capacity to meet the growing demand for steel. They have doubled their crude steel capacity in Dolvi to 10 million tonnes per annum (MTPA) and have completed the capacity expansion at Vijayanagar's CRM-1 complex. These expansions will contribute to increased production and sales volume.
+Product Innovation: JSW Steel is committed to delivering high-quality and innovative products to its customers. They have enhanced their focus on research and development (R&amp;D) initiatives and have developed 58 new grades of steel. The company aims to strengthen its market share in the Value-added and Special Products (VASP) segment by continuously upgrading its product offerings.
+Diversification: JSW Steel aims to diversify its product portfolio to cater to different industry segments. They have been focusing on the sale of value-added and special products (VASP), which accounted for 60% of total sales volumes in FY 2021-22. This diversification strategy helps JSW Steel tap into new markets and increase sales.
+Strong Branding: JSW Steel has established strong product brands over the years, which enjoy considerable market share. In FY 2021-22, branded products accounted for 47% of total retail sales. By maintaining and strengthening their brand presence, JSW Steel aims to attract more customers and increase sales.
+Export Focus: JSW Steel has been actively involved in export activities, with exports accounting for 28% of total sales in FY 2021-22. They have been exporting steel to various countries and aim to expand their presence in the global market. However, it is important to note that export volumes in FY 2022-23 experienced a decline due to the imposition of export duties.
+These are some of the planned initiatives and strategies that JSW Steel is implementing to grow their sales. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The consolidated revenue of JSW Steel for FY 21-22 was ₹146,371 crore, and for FY 22-23 it was ₹1,65,960 crore.
+</t>
+  </si>
+  <si>
+    <t>Tata Steel has allocated a total of approximately Rs. 14,142 crore for capital expenditure in the fiscal year 2022-23. This includes investments in the ongoing expansion of the Kalinganagar Plant and the establishment of a scrap and EAF based long products plant as part of their decarbonization strategy. In Europe, the company has allocated capital for transitioning to steel production using green hydrogen and for blast furnace relining projects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In different years, Tata Steel engaged in various merger and acquisition activities. Some key activities include:
+Amalgamation of Bamnipal Steel Limited and Tata Steel BSL Limited into Tata Steel Limited. The scheme was approved by the shareholders in March 2021, and the merger became effective in November 2021.
+Acquisition of Neelachal Ispat Nigam Limited by Tata Steel Long Products Limited (TSLP) in January 2022. This strategic acquisition will help boost Tata Steel's long products business.
+Acquisition of a stake in Ceramat Private Limited by Tata Steel Limited through its subsidiary Tata Steel Advanced Materials Limited. This acquisition was completed in March 2022.
+Acquisition of itemized assets from Stork Ferro and Mineral Industries Private Limited in March 2022.
+Acquisition of the entire stake held by Steel Authority of India Limited in S &amp; T Mining Company Limited in April 2022. S&amp;T Mining became a wholly-owned subsidiary of Tata Steel.
+Amalgamation of Tata Steel Long Products Limited, The Tinplate Company of India Limited, Tata Metaliks Limited, and TRF Limited into Tata Steel Limited. The schemes of amalgamation were approved by the Board in September 2022 and are subject to approval from shareholders and regulatory authorities.
+</t>
+  </si>
+  <si>
+    <t>JSW Steel has engaged in various merger and acquisition activities in different years. In FY 2022-23, JSW Steel acquired Bhushan Power and Steel Limited (BPSL), which operates a 3.50 MTPA integrated steel plant in Odisha. The merger with BPSL resulted in JSW Steel holding 83.28% equity in PSL, making it a subsidiary of JSW Steel. The financial performance of BPSL in FY 2022-23 showed a decline in EBITDA and profit after tax compared to the previous year.
+In addition to the BPSL merger, JSW Steel also carried out other mergers and acquisitions. The Company merged its wholly-owned subsidiaries ACCIL and HSL with JSW Steel. The merger of VIL and JVTPL, wholly-owned subsidiaries of JSW Steel, with JSW Coated was also completed. JSW Coated issued shares to JSW Steel as part of the merger.
+JSW Steel continues to evaluate acquisition opportunities that are value accretive while maintaining financial discipline. The Company aims to increase its domestic steel capacity to 37 MTPA by FY 2024-25.</t>
   </si>
 </sst>
 </file>
@@ -815,16 +832,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97978C4D-CEFF-4F15-A452-624647C214F6}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="36" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="36" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="36" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -835,7 +852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -846,7 +863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="261" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -857,7 +874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="360" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="391.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -865,32 +882,32 @@
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
@@ -901,119 +918,119 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
     </row>
-    <row r="10" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="9" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="B12" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="C12" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="261" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="4" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="4" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="B15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C16" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B17" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C17" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+    <row r="18" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B18" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1029,15 +1046,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="27.6328125" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" customWidth="1"/>
+    <col min="4" max="4" width="26.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1048,32 +1065,32 @@
         <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1084,18 +1101,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1106,18 +1123,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -1128,7 +1145,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
